--- a/Report/Runtime.xlsx
+++ b/Report/Runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 1/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46225212-9202-DC48-AA4F-0A97C8CCF719}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D87A7-CCB1-AE45-AB30-C867EE3288D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,6 +166,15 @@
     <t>First Come First Served</t>
   </si>
   <si>
+    <t>Percentage Difference</t>
+  </si>
+  <si>
+    <t>Time Taken for Serial Code</t>
+  </si>
+  <si>
+    <t>Theoretical Speedup Calculation</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -243,17 +252,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>- 10GB/s</t>
+      <t>- Gigabit Ethernet</t>
     </r>
-  </si>
-  <si>
-    <t>Percentage Difference</t>
-  </si>
-  <si>
-    <t>Time Taken for Serial Code</t>
-  </si>
-  <si>
-    <t>Theoretical Speedup Calculation</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1070,8 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,17 +1080,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,13 +1107,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1121,37 +1125,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,9 +1143,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1942,772 +1942,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Theoretical</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Speed up vs Actual Speed up for N processors</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test!$C$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Theoretical Speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>test!$B$77:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>test!$C$77:$C$81</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9944013291153644</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9665949983025928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.845826711730874</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.353496419263726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.438199416322064</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0736-C248-AE63-8F67F0F4A87E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test!$D$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Naïve Row-Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>test!$B$77:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>test!$D$77:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9781235231143819</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.059837450543287</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4980865544117234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9730492768734758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3796591424774096</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0736-C248-AE63-8F67F0F4A87E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test!$E$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>First Come First Served</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>test!$B$77:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>test!$E$77:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.003964086296423</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9841369379958578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7748587613731797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.333745574995561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.7293176759696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0736-C248-AE63-8F67F0F4A87E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test!$I$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Naïve Row-Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>test!$B$77:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>test!$I$77:$I$81</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.81951940423209169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.279811528443119</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103.39878186765587</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>117.77011082394159</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119.82522144038528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0736-C248-AE63-8F67F0F4A87E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="973163695"/>
-        <c:axId val="941557999"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="973163695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="941557999"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="941557999"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speed Up</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="973163695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Theoretical</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Speed-up vs Actual Speed-up</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3105,6 +2340,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3170,6 +2463,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Speed-up Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3235,9 +2586,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3256,16 +2607,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3288,7 +2632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3302,62 +2646,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Percentage Difference</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3662,6 +2951,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3727,6 +3074,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percentage Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3792,9 +3197,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3817,12 +3222,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3883,10 +3283,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3959,46 +3362,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4516,7 +3879,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4624,11 +3987,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4639,11 +3997,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4675,9 +4028,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5032,509 +4382,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6084,42 +4931,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>207596</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>550985</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>253022</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E7C872-B809-704E-83D9-15A5CECF6D09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
       <xdr:row>83</xdr:row>
@@ -6148,7 +4959,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6184,7 +4995,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6502,31 +5313,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="2:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="45"/>
@@ -6539,7 +5350,7 @@
       <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="45"/>
@@ -6552,7 +5363,7 @@
       <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="45"/>
@@ -6565,32 +5376,32 @@
       <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="47" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="47"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
@@ -6752,31 +5563,31 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="2:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="45"/>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="45"/>
@@ -6789,7 +5600,7 @@
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="45"/>
@@ -6802,7 +5613,7 @@
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="45"/>
@@ -6815,32 +5626,32 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="47"/>
-      <c r="C21" s="51" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="47"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="47" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="2">
         <v>2</v>
       </c>
@@ -7002,31 +5813,31 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="2:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="45"/>
@@ -7039,7 +5850,7 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="45"/>
@@ -7052,7 +5863,7 @@
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="45"/>
@@ -7065,32 +5876,32 @@
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="2">
         <v>2</v>
       </c>
@@ -7355,12 +6166,12 @@
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="45"/>
     </row>
     <row r="61" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -7505,13 +6316,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:H34"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="B5:C5"/>
@@ -7525,26 +6349,13 @@
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7556,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7567,169 +6378,169 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="62">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="74">
         <v>8000</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="62">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="74">
         <v>8000</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="75">
         <v>2000</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
     </row>
     <row r="7" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68">
+      <c r="B9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="62">
         <v>2</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57">
         <v>4</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56">
+      <c r="H9" s="57"/>
+      <c r="I9" s="57">
         <v>8</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57">
         <v>16</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57">
         <v>32</v>
       </c>
-      <c r="N9" s="56"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="73"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="14" t="s">
         <v>33</v>
       </c>
@@ -8111,169 +6922,169 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
     </row>
     <row r="23" spans="1:14" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="62">
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="74">
         <v>8000</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="62">
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="74">
         <v>8000</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
     </row>
     <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64">
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="75">
         <v>2000</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
     </row>
     <row r="27" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68">
+      <c r="B29" s="66"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="62">
         <v>2</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56">
+      <c r="F29" s="57"/>
+      <c r="G29" s="57">
         <v>4</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56">
+      <c r="H29" s="57"/>
+      <c r="I29" s="57">
         <v>8</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57">
         <v>16</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56">
+      <c r="L29" s="57"/>
+      <c r="M29" s="57">
         <v>32</v>
       </c>
-      <c r="N29" s="56"/>
+      <c r="N29" s="57"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="73"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
@@ -8687,169 +7498,169 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="62">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="74">
         <v>8000</v>
       </c>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="62">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="74">
         <v>8000</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
     </row>
     <row r="48" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64">
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="75">
         <v>2000</v>
       </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
     </row>
     <row r="49" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="65" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="69"/>
+      <c r="E49" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68">
+      <c r="B51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="62">
         <v>2</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56">
+      <c r="F51" s="57"/>
+      <c r="G51" s="57">
         <v>4</v>
       </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56">
+      <c r="H51" s="57"/>
+      <c r="I51" s="57">
         <v>8</v>
       </c>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56">
+      <c r="J51" s="57"/>
+      <c r="K51" s="57">
         <v>16</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56">
+      <c r="L51" s="57"/>
+      <c r="M51" s="57">
         <v>32</v>
       </c>
-      <c r="N51" s="56"/>
+      <c r="N51" s="57"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
-      <c r="B52" s="73"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="14" t="s">
         <v>33</v>
       </c>
@@ -9183,11 +7994,11 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
-      <c r="B61" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -9351,11 +8162,11 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
-      <c r="B69" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="13"/>
       <c r="F69" s="25"/>
       <c r="G69" s="13"/>
@@ -9372,11 +8183,11 @@
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="75">
+      <c r="C70" s="58">
         <f>C68/D68</f>
         <v>0.99719280628081075</v>
       </c>
-      <c r="D70" s="75"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="13"/>
       <c r="F70" s="25"/>
       <c r="G70" s="13"/>
@@ -9393,11 +8204,11 @@
       <c r="B71" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="75">
+      <c r="C71" s="58">
         <f>1-C70</f>
         <v>2.8071937191892493E-3</v>
       </c>
-      <c r="D71" s="75"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="13"/>
       <c r="F71" s="25"/>
       <c r="G71" s="13"/>
@@ -9459,20 +8270,20 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="31"/>
-      <c r="H75" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
+      <c r="H75" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
       <c r="L75" s="31"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
@@ -9545,10 +8356,10 @@
         <v>66.065145877685993</v>
       </c>
       <c r="K77" s="42">
-        <f t="shared" ref="K77:K80" si="19">100 * ABS(C77-F77) / ((C77+F77)/2)</f>
+        <f t="shared" ref="K77:K79" si="19">100 * ABS(C77-F77) / ((C77+F77)/2)</f>
         <v>0.22072293267977561</v>
       </c>
-      <c r="L77" s="74"/>
+      <c r="L77" s="43"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
@@ -9589,7 +8400,7 @@
         <f t="shared" si="19"/>
         <v>0.15114245475335913</v>
       </c>
-      <c r="L78" s="74"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
@@ -9630,7 +8441,7 @@
         <f t="shared" si="19"/>
         <v>3.0948047500566092</v>
       </c>
-      <c r="L79" s="74"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
@@ -9668,10 +8479,10 @@
         <v>14.081178278987885</v>
       </c>
       <c r="K80" s="42">
-        <f t="shared" si="19"/>
+        <f>100 * ABS(C80-F80) / ((C80+F80)/2)</f>
         <v>13.777582806352445</v>
       </c>
-      <c r="L80" s="74"/>
+      <c r="L80" s="43"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
@@ -9712,7 +8523,7 @@
         <f>100 * ABS(C81-F81) / ((C81+F81)/2)</f>
         <v>25.081211691228475</v>
       </c>
-      <c r="L81" s="74"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
@@ -9765,11 +8576,45 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="E46:N46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:N47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:N48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:D51"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="E50:N50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
@@ -9786,45 +8631,11 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B44:N44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="E46:N46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:N47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:N48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:D51"/>
-    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
